--- a/testing-site/0_dropdown-specs/menu-notes.xlsx
+++ b/testing-site/0_dropdown-specs/menu-notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/One-More-Voice/testing-site/0_dropdown-specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EA2D6D-1F58-FF4C-971B-34274496B104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F1342A-9E29-1C4D-B25A-CE49B1B7E5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="24980" windowHeight="15000" xr2:uid="{3B57181E-5FB3-1D4E-AFED-5DD838B8EEF8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Title on nav</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>maybe</t>
+  </si>
+  <si>
+    <t>https://code-boxx.com/simple-responsive-pure-css-hamburger-menu/</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE3C945-51D3-5045-96B6-9478701C4C93}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -609,6 +612,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:10" ht="34">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
